--- a/BillAppDocs/Elect Bills copy updated.xlsx
+++ b/BillAppDocs/Elect Bills copy updated.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E67505-E2AF-41AD-8C7A-61E7000D8227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AD98C-735E-41CE-932F-AC33C6770110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital" sheetId="13" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
     </xf>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,512 +1706,662 @@
     <xf numFmtId="2" fontId="33" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="37" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="37" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="22" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="38" fontId="28" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2228,150 +2378,12 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="37" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="37" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2380,33 +2392,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="22" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2582,9 +2567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2622,9 +2607,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2657,26 +2642,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2709,26 +2677,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2904,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:K28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2928,36 +2879,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="96" t="s">
+      <c r="A1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="216"/>
     </row>
     <row r="2" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="213"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -2975,21 +2926,21 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="98" t="s">
+      <c r="A3" s="213"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3007,21 +2958,21 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="98" t="s">
+      <c r="A4" s="213"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="218"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3039,31 +2990,31 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101" t="s">
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="193"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="101" t="s">
+      <c r="J5" s="220"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="101"/>
+      <c r="M5" s="193"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3081,27 +3032,27 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="133" t="s">
+      <c r="A6" s="247"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="203"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="129"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="192"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -3119,31 +3070,31 @@
       <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="193"/>
       <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="131" t="s">
+      <c r="K7" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="9"/>
@@ -3161,25 +3112,25 @@
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="100" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="129" t="s">
+      <c r="J8" s="207"/>
+      <c r="K8" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
       <c r="N8" s="5"/>
       <c r="O8"/>
       <c r="P8"/>
@@ -3197,27 +3148,27 @@
       <c r="AB8" s="11"/>
     </row>
     <row r="9" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="102" t="s">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="100" t="s">
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="131" t="s">
+      <c r="J9" s="207"/>
+      <c r="K9" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="208"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
@@ -3235,14 +3186,14 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="245"/>
       <c r="I10" s="49" t="s">
         <v>24</v>
       </c>
@@ -3252,10 +3203,10 @@
       <c r="K10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="101" t="s">
+      <c r="L10" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="101"/>
+      <c r="M10" s="193"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
@@ -3272,21 +3223,21 @@
       <c r="AB10" s="11"/>
     </row>
     <row r="11" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="151"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="199"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -3304,21 +3255,21 @@
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="141"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="169"/>
       <c r="N12" s="20"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -3336,21 +3287,21 @@
       <c r="AB12"/>
     </row>
     <row r="13" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="83"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="78"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="141"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3368,21 +3319,21 @@
       <c r="AB13"/>
     </row>
     <row r="14" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
       <c r="F14" s="22"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="169"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
@@ -3400,21 +3351,21 @@
       <c r="AB14"/>
     </row>
     <row r="15" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="141"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="169"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -3432,19 +3383,19 @@
       <c r="AB15" s="24"/>
     </row>
     <row r="16" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="141"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -3453,11 +3404,11 @@
       <c r="A17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="47" t="s">
         <v>32</v>
       </c>
@@ -3473,346 +3424,346 @@
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="141"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="169"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="230">
         <v>1798</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="156">
+      <c r="D18" s="231"/>
+      <c r="E18" s="170">
         <v>1800</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="177">
         <v>1</v>
       </c>
-      <c r="G18" s="161">
+      <c r="G18" s="180">
         <f>E18-C18</f>
         <v>2</v>
       </c>
-      <c r="H18" s="163"/>
+      <c r="H18" s="182"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="169"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="164"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="183"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="141"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="169"/>
       <c r="N19" s="26"/>
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="154"/>
-      <c r="B20" s="123" t="s">
+      <c r="A20" s="175"/>
+      <c r="B20" s="240" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="236">
         <v>9325</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="156">
+      <c r="D20" s="231"/>
+      <c r="E20" s="170">
         <v>9332</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="156">
+      <c r="F20" s="178"/>
+      <c r="G20" s="170">
         <f>E20-C20</f>
         <v>7</v>
       </c>
-      <c r="H20" s="164"/>
+      <c r="H20" s="183"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="141"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="169"/>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="154"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="164"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="183"/>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="169"/>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="165"/>
+      <c r="A22" s="176"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="184"/>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="141"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="169"/>
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168" t="s">
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170" t="s">
+      <c r="G23" s="187"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="90">
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="85">
         <f>G18+G20</f>
         <v>9</v>
       </c>
-      <c r="F24" s="173" t="s">
+      <c r="F24" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="173"/>
+      <c r="G24" s="166"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="170" t="s">
+      <c r="I24" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="174">
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="161">
         <f>H37+E31</f>
         <v>1598.0801799999999</v>
       </c>
-      <c r="M24" s="175"/>
+      <c r="M24" s="162"/>
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="87">
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="82">
         <f>G18*E37+G20*E38</f>
         <v>387.76</v>
       </c>
-      <c r="F25" s="177" t="s">
+      <c r="F25" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="87">
+      <c r="G25" s="114"/>
+      <c r="H25" s="82">
         <v>35</v>
       </c>
-      <c r="I25" s="178" t="s">
+      <c r="I25" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="183">
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="163">
         <v>250</v>
       </c>
-      <c r="M25" s="184"/>
+      <c r="M25" s="164"/>
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="111">
+      <c r="B26" s="223"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="228">
         <f>SUM(E25+H35+H24+E28)*18%</f>
         <v>79.029179999999997</v>
       </c>
-      <c r="F26" s="177" t="s">
+      <c r="F26" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="177"/>
-      <c r="H26" s="87">
+      <c r="G26" s="114"/>
+      <c r="H26" s="82">
         <v>25</v>
       </c>
-      <c r="I26" s="178" t="s">
+      <c r="I26" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="180"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="159"/>
       <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="177" t="s">
+      <c r="A27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="177"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="178" t="s">
+      <c r="I27" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="179">
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158">
         <v>0</v>
       </c>
-      <c r="M27" s="180"/>
+      <c r="M27" s="159"/>
       <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="87">
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="82">
         <f>E24*2.469</f>
         <v>22.221</v>
       </c>
-      <c r="F28" s="177" t="s">
+      <c r="F28" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="177"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="182" t="s">
+      <c r="I28" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="174">
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161">
         <f>SUM(L24:M25)</f>
         <v>1848.0801799999999</v>
       </c>
-      <c r="M28" s="175"/>
+      <c r="M28" s="162"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="87">
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="82">
         <v>20</v>
       </c>
-      <c r="F29" s="191" t="s">
+      <c r="F29" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="192"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="197" t="s">
+      <c r="G29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="198"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="305">
+      <c r="J29" s="148"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="153">
         <f>L31-L28</f>
         <v>184.80801800000017</v>
       </c>
-      <c r="M29" s="306"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="87">
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="82">
         <v>1000</v>
       </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="307"/>
-      <c r="M30" s="308"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="156"/>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="88">
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="83">
         <f>E25+E26+E28+E29+E30</f>
         <v>1509.01018</v>
       </c>
-      <c r="F31" s="177" t="s">
+      <c r="F31" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="177"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="186" t="s">
+      <c r="I31" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="303">
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135">
         <f>L28*1.1</f>
         <v>2032.8881980000001</v>
       </c>
-      <c r="M31" s="304"/>
+      <c r="M31" s="136"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -3830,25 +3781,25 @@
       <c r="AB31" s="5"/>
     </row>
     <row r="32" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="187" t="s">
+      <c r="F32" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="187"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="188" t="s">
+      <c r="I32" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="190"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -3866,29 +3817,29 @@
       <c r="AB32" s="10"/>
     </row>
     <row r="33" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="177" t="s">
+      <c r="F33" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="177"/>
+      <c r="G33" s="114"/>
       <c r="H33" s="31"/>
-      <c r="I33" s="212" t="s">
+      <c r="I33" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="214" t="s">
+      <c r="J33" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="215"/>
-      <c r="L33" s="216" t="s">
+      <c r="K33" s="126"/>
+      <c r="L33" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="217"/>
+      <c r="M33" s="128"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -3906,27 +3857,27 @@
       <c r="AB33" s="10"/>
     </row>
     <row r="34" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="177" t="s">
+      <c r="F34" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="177"/>
+      <c r="G34" s="114"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="218" t="s">
+      <c r="I34" s="124"/>
+      <c r="J34" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="219"/>
-      <c r="L34" s="220">
+      <c r="K34" s="130"/>
+      <c r="L34" s="131">
         <v>3.5627</v>
       </c>
-      <c r="M34" s="221"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -3944,28 +3895,28 @@
       <c r="AB34" s="10"/>
     </row>
     <row r="35" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="203" t="s">
+      <c r="A35" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="203"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="31"/>
-      <c r="F35" s="177" t="s">
+      <c r="F35" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="177"/>
-      <c r="H35" s="87">
+      <c r="G35" s="114"/>
+      <c r="H35" s="82">
         <f>E24*3.23</f>
         <v>29.07</v>
       </c>
-      <c r="I35" s="204" t="s">
+      <c r="I35" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="206"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -3986,26 +3937,26 @@
       <c r="A36" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="208" t="s">
+      <c r="F36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="208"/>
+      <c r="G36" s="119"/>
       <c r="H36" s="31"/>
-      <c r="I36" s="209" t="s">
+      <c r="I36" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
-      <c r="M36" s="211"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -4023,32 +3974,32 @@
       <c r="AB36" s="10"/>
     </row>
     <row r="37" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="212" t="s">
+      <c r="A37" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="224" t="s">
+      <c r="B37" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="33">
         <v>48</v>
       </c>
-      <c r="F37" s="237" t="s">
+      <c r="F37" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="238"/>
-      <c r="H37" s="91">
+      <c r="G37" s="104"/>
+      <c r="H37" s="86">
         <f>SUM(H24:H36)</f>
         <v>89.07</v>
       </c>
-      <c r="I37" s="239" t="s">
+      <c r="I37" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="240"/>
-      <c r="K37" s="240"/>
-      <c r="L37" s="240"/>
-      <c r="M37" s="241"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="107"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -4066,27 +4017,27 @@
       <c r="AB37" s="10"/>
     </row>
     <row r="38" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="236"/>
-      <c r="B38" s="228" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="34">
         <v>41.68</v>
       </c>
-      <c r="F38" s="242" t="s">
+      <c r="F38" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="243"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="245" t="s">
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="245"/>
-      <c r="K38" s="245"/>
-      <c r="L38" s="245"/>
-      <c r="M38" s="246"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="112"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -4104,18 +4055,18 @@
       <c r="AB38" s="10"/>
     </row>
     <row r="39" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="224"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="225" t="s">
+      <c r="F39" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="226"/>
-      <c r="H39" s="227"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
@@ -4138,21 +4089,21 @@
       <c r="AB39" s="36"/>
     </row>
     <row r="40" spans="1:28" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="223"/>
-      <c r="B40" s="228"/>
-      <c r="C40" s="228"/>
-      <c r="D40" s="228"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="44"/>
-      <c r="F40" s="229" t="s">
+      <c r="F40" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="230"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="231"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
       <c r="N40" s="37"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4171,18 +4122,18 @@
     </row>
     <row r="41" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
-      <c r="B41" s="235"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="235"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="38"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="233"/>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="233"/>
-      <c r="M41" s="234"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="99"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="5"/>
@@ -4251,10 +4202,10 @@
     <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="40"/>
       <c r="E45" s="6"/>
-      <c r="L45" s="222" t="s">
+      <c r="L45" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="M45" s="222"/>
+      <c r="M45" s="87"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -4296,104 +4247,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="122">
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:M41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:K30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="E1:M2"/>
     <mergeCell ref="E3:M3"/>
@@ -4418,6 +4271,104 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:M41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:M38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
@@ -4452,32 +4403,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="253"/>
-      <c r="B1" s="253"/>
-      <c r="C1" s="296" t="s">
+      <c r="A1" s="256"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
+      <c r="A2" s="256"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -4488,19 +4439,19 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="296" t="s">
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -4511,19 +4462,19 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="253"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="296" t="s">
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -4534,29 +4485,29 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="292" t="s">
+      <c r="B5" s="253"/>
+      <c r="C5" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="292"/>
+      <c r="D5" s="254"/>
       <c r="E5" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="297" t="s">
+      <c r="G5" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="298"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="292" t="s">
+      <c r="H5" s="259"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="292"/>
+      <c r="K5" s="254"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -4567,25 +4518,25 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="291"/>
-      <c r="B6" s="291"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
+      <c r="A6" s="248"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="53">
         <v>1.5</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="294" t="s">
+      <c r="H6" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="295"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="266"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="249"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4596,29 +4547,29 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="255"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="292" t="s">
+      <c r="E7" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="292"/>
-      <c r="G7" s="255" t="s">
+      <c r="F7" s="254"/>
+      <c r="G7" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="290" t="s">
+      <c r="H7" s="253"/>
+      <c r="I7" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="255"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -4629,25 +4580,25 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="266"/>
-      <c r="B8" s="266"/>
+      <c r="A8" s="249"/>
+      <c r="B8" s="249"/>
       <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="255" t="s">
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="266" t="s">
+      <c r="H8" s="253"/>
+      <c r="I8" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -4658,25 +4609,25 @@
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="292" t="s">
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="255" t="s">
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="255"/>
-      <c r="I9" s="290">
+      <c r="H9" s="253"/>
+      <c r="I9" s="255">
         <v>0</v>
       </c>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -4687,12 +4638,12 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
+      <c r="A10" s="249"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="56"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
       <c r="G10" s="52" t="s">
         <v>24</v>
       </c>
@@ -4702,10 +4653,10 @@
       <c r="I10" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="292" t="s">
+      <c r="J10" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="292"/>
+      <c r="K10" s="254"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4716,14 +4667,14 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="293" t="s">
+      <c r="A11" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
       <c r="G11" s="57"/>
       <c r="H11" s="58"/>
       <c r="I11" s="59"/>
@@ -4739,14 +4690,14 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="57"/>
       <c r="H12" s="58"/>
       <c r="I12" s="59"/>
@@ -4762,14 +4713,14 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="83"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="57"/>
       <c r="H13" s="58"/>
       <c r="I13" s="59"/>
@@ -4791,12 +4742,12 @@
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="283" t="s">
+      <c r="A14" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="283"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
+      <c r="B14" s="270"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
       <c r="G14" s="57"/>
@@ -4820,12 +4771,12 @@
       <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="284" t="s">
+      <c r="A15" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="284"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="284"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="62"/>
       <c r="F15" s="63"/>
       <c r="G15" s="57"/>
@@ -4849,12 +4800,12 @@
       <c r="Y15" s="24"/>
     </row>
     <row r="16" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="284"/>
-      <c r="B16" s="284"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
+      <c r="A16" s="271"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
       <c r="G16" s="57"/>
       <c r="H16" s="64"/>
       <c r="I16" s="59"/>
@@ -4867,26 +4818,26 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="81" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="81" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="285"/>
-      <c r="H17" s="286"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
       <c r="I17" s="65"/>
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
@@ -4897,23 +4848,23 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="287" t="s">
+      <c r="A18" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="289">
+      <c r="B18" s="276">
         <v>4553</v>
       </c>
-      <c r="C18" s="289">
+      <c r="C18" s="276">
         <v>4713</v>
       </c>
-      <c r="D18" s="290">
+      <c r="D18" s="255">
         <v>1</v>
       </c>
-      <c r="E18" s="289">
+      <c r="E18" s="276">
         <f>C18-B18</f>
         <v>160</v>
       </c>
-      <c r="F18" s="290"/>
+      <c r="F18" s="255"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
@@ -4926,12 +4877,12 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="288"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
+      <c r="A19" s="275"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="255"/>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4943,12 +4894,12 @@
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="288"/>
-      <c r="B20" s="289"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
+      <c r="A20" s="275"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="255"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
@@ -4959,12 +4910,12 @@
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="288"/>
-      <c r="B21" s="289"/>
-      <c r="C21" s="289"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
+      <c r="A21" s="275"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="255"/>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
       <c r="I21" s="64"/>
@@ -4975,12 +4926,12 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="288"/>
-      <c r="B22" s="289"/>
-      <c r="C22" s="289"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
+      <c r="A22" s="275"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="255"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
@@ -4991,181 +4942,181 @@
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="278" t="s">
+      <c r="A23" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="278"/>
-      <c r="D23" s="279" t="s">
+      <c r="B23" s="262"/>
+      <c r="C23" s="262"/>
+      <c r="D23" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="280" t="s">
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="280"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="281"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="265"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="88">
+      <c r="B24" s="266"/>
+      <c r="C24" s="83">
         <f>E18</f>
         <v>160</v>
       </c>
-      <c r="D24" s="252" t="s">
+      <c r="D24" s="267" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="252"/>
+      <c r="E24" s="267"/>
       <c r="F24" s="31">
         <v>0</v>
       </c>
-      <c r="G24" s="310" t="s">
+      <c r="G24" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="310"/>
-      <c r="I24" s="310"/>
-      <c r="J24" s="282">
+      <c r="H24" s="268"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="269">
         <f>F37+C31</f>
         <v>5634.8</v>
       </c>
-      <c r="K24" s="282"/>
+      <c r="K24" s="269"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="267"/>
-      <c r="C25" s="87">
+      <c r="B25" s="279"/>
+      <c r="C25" s="82">
         <f>IF(C24&lt;=100,(C24*C37),IF(C24&lt;=200,(C24*C38),IF(C24&lt;=300,(C24*C39),IF(C24&lt;=400,(C24*C40),IF(C24&lt;=500,(C24*C41),IF(D24&lt;=600,(D24*C42),IF(D24&lt;=700,(D24*C43),IF(D24&gt;700,(D24*C44)))))))))</f>
         <v>3672</v>
       </c>
-      <c r="D25" s="252" t="s">
+      <c r="D25" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="252"/>
-      <c r="F25" s="87">
+      <c r="E25" s="267"/>
+      <c r="F25" s="82">
         <v>35</v>
       </c>
-      <c r="G25" s="263" t="s">
+      <c r="G25" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="263"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="270">
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="280">
         <v>250</v>
       </c>
-      <c r="K25" s="270"/>
+      <c r="K25" s="280"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="271" t="s">
+      <c r="A26" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="272"/>
-      <c r="C26" s="275">
+      <c r="B26" s="282"/>
+      <c r="C26" s="285">
         <v>825</v>
       </c>
-      <c r="D26" s="252" t="s">
+      <c r="D26" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="252"/>
-      <c r="F26" s="87">
+      <c r="E26" s="267"/>
+      <c r="F26" s="82">
         <v>25</v>
       </c>
-      <c r="G26" s="268" t="s">
+      <c r="G26" s="287" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="268"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="277"/>
-      <c r="K26" s="277"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="288"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="273"/>
-      <c r="B27" s="274"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="252" t="s">
+      <c r="A27" s="283"/>
+      <c r="B27" s="284"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="252"/>
+      <c r="E27" s="267"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="263" t="s">
+      <c r="G27" s="277" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="265"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="87">
+      <c r="B28" s="279"/>
+      <c r="C28" s="82">
         <v>395</v>
       </c>
-      <c r="D28" s="252" t="s">
+      <c r="D28" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="252"/>
+      <c r="E28" s="267"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="263" t="s">
+      <c r="G28" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="265">
+      <c r="H28" s="277"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="278">
         <v>0</v>
       </c>
-      <c r="K28" s="265"/>
+      <c r="K28" s="278"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="267" t="s">
+      <c r="A29" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="267"/>
-      <c r="C29" s="87">
+      <c r="B29" s="279"/>
+      <c r="C29" s="82">
         <v>166</v>
       </c>
-      <c r="D29" s="252" t="s">
+      <c r="D29" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="252"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="309" t="s">
+      <c r="G29" s="289" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="269">
+      <c r="H29" s="289"/>
+      <c r="I29" s="289"/>
+      <c r="J29" s="291">
         <f>J24+J25</f>
         <v>5884.8</v>
       </c>
-      <c r="K29" s="269"/>
+      <c r="K29" s="291"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -5185,28 +5136,28 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="87">
+      <c r="B30" s="279"/>
+      <c r="C30" s="82">
         <v>0</v>
       </c>
-      <c r="D30" s="252" t="s">
+      <c r="D30" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="252"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="263" t="s">
+      <c r="G30" s="277" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="263"/>
-      <c r="I30" s="263"/>
-      <c r="J30" s="265">
+      <c r="H30" s="277"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="278">
         <f>J29*10%</f>
         <v>588.48</v>
       </c>
-      <c r="K30" s="265"/>
+      <c r="K30" s="278"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="5"/>
@@ -5226,29 +5177,29 @@
       <c r="AB30" s="10"/>
     </row>
     <row r="31" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="309" t="s">
+      <c r="A31" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="309"/>
-      <c r="C31" s="88">
+      <c r="B31" s="289"/>
+      <c r="C31" s="83">
         <f>C25+C26+C28+C29+C30</f>
         <v>5058</v>
       </c>
-      <c r="D31" s="252" t="s">
+      <c r="D31" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="252"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="264" t="s">
+      <c r="G31" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="264"/>
-      <c r="I31" s="264"/>
-      <c r="J31" s="265">
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="278">
         <f>J29+J30</f>
         <v>6473.2800000000007</v>
       </c>
-      <c r="K31" s="265"/>
+      <c r="K31" s="278"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -5268,23 +5219,23 @@
       <c r="AB31" s="10"/>
     </row>
     <row r="32" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="255" t="s">
+      <c r="A32" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="255"/>
+      <c r="B32" s="253"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="252" t="s">
+      <c r="D32" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="252"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="266" t="s">
+      <c r="G32" s="249" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="5"/>
@@ -5304,27 +5255,27 @@
       <c r="AB32" s="10"/>
     </row>
     <row r="33" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="255" t="s">
+      <c r="A33" s="253" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="255"/>
+      <c r="B33" s="253"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="252" t="s">
+      <c r="D33" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="252"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="257" t="s">
+      <c r="G33" s="292" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="258" t="s">
+      <c r="H33" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="258"/>
-      <c r="J33" s="259" t="s">
+      <c r="I33" s="252"/>
+      <c r="J33" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="259"/>
+      <c r="K33" s="293"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -5344,30 +5295,30 @@
       <c r="AB33" s="10"/>
     </row>
     <row r="34" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="255" t="s">
+      <c r="A34" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="255"/>
+      <c r="B34" s="253"/>
       <c r="C34" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="252" t="s">
+      <c r="D34" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="252"/>
-      <c r="F34" s="87">
+      <c r="E34" s="267"/>
+      <c r="F34" s="82">
         <f>C24*3.23</f>
         <v>516.79999999999995</v>
       </c>
-      <c r="G34" s="257"/>
-      <c r="H34" s="260" t="s">
+      <c r="G34" s="292"/>
+      <c r="H34" s="294" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="261"/>
-      <c r="J34" s="262">
+      <c r="I34" s="295"/>
+      <c r="J34" s="296">
         <v>2.5627</v>
       </c>
-      <c r="K34" s="262"/>
+      <c r="K34" s="296"/>
       <c r="L34" s="66"/>
       <c r="M34" s="66"/>
       <c r="N34" s="5"/>
@@ -5396,16 +5347,16 @@
       <c r="C35" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="252" t="s">
+      <c r="D35" s="267" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="252"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
-      <c r="K35" s="253"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
       <c r="N35" s="5"/>
@@ -5470,21 +5421,21 @@
       <c r="C37" s="71">
         <v>16.48</v>
       </c>
-      <c r="D37" s="311" t="s">
+      <c r="D37" s="302" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="311"/>
-      <c r="F37" s="88">
+      <c r="E37" s="302"/>
+      <c r="F37" s="83">
         <f>SUM(F24:F35)</f>
         <v>576.79999999999995</v>
       </c>
-      <c r="G37" s="254" t="s">
+      <c r="G37" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="254"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="254"/>
-      <c r="K37" s="254"/>
+      <c r="H37" s="303"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="303"/>
+      <c r="K37" s="303"/>
       <c r="L37" s="66"/>
       <c r="M37" s="66"/>
       <c r="N37" s="5"/>
@@ -5513,16 +5464,16 @@
       <c r="C38" s="71">
         <v>22.95</v>
       </c>
-      <c r="D38" s="253"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="255" t="s">
+      <c r="D38" s="256"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="253" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
-      <c r="K38" s="255"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
+      <c r="K38" s="253"/>
       <c r="L38" s="74"/>
       <c r="M38" s="74"/>
       <c r="N38" s="35"/>
@@ -5551,16 +5502,16 @@
       <c r="C39" s="71">
         <v>34.26</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="256" t="s">
+      <c r="D39" s="256"/>
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="256"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="256"/>
-      <c r="K39" s="256"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
       <c r="L39" s="74"/>
       <c r="M39" s="74"/>
       <c r="N39" s="37"/>
@@ -5589,16 +5540,16 @@
       <c r="C40" s="71">
         <v>39.15</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="254" t="s">
+      <c r="D40" s="256"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="254"/>
+      <c r="H40" s="303"/>
+      <c r="I40" s="303"/>
+      <c r="J40" s="303"/>
+      <c r="K40" s="303"/>
       <c r="L40" s="74"/>
       <c r="M40" s="74"/>
       <c r="N40" s="5"/>
@@ -5627,16 +5578,16 @@
       <c r="C41" s="71">
         <v>41.36</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="255" t="s">
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="255"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="253"/>
+      <c r="K41" s="253"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
@@ -5650,16 +5601,16 @@
       <c r="C42" s="71">
         <v>42.78</v>
       </c>
-      <c r="D42" s="247" t="s">
+      <c r="D42" s="297" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="247"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="247"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="297"/>
+      <c r="H42" s="297"/>
+      <c r="I42" s="297"/>
+      <c r="J42" s="297"/>
+      <c r="K42" s="297"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5688,16 +5639,16 @@
       <c r="C43" s="71">
         <v>43.92</v>
       </c>
-      <c r="D43" s="248" t="s">
+      <c r="D43" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="248"/>
-      <c r="F43" s="248"/>
-      <c r="G43" s="248"/>
-      <c r="H43" s="248"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="248"/>
-      <c r="K43" s="248"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="298"/>
+      <c r="K43" s="298"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5726,14 +5677,14 @@
       <c r="C44" s="77">
         <v>48.84</v>
       </c>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="249"/>
-      <c r="H44" s="249"/>
-      <c r="I44" s="249"/>
-      <c r="J44" s="249"/>
-      <c r="K44" s="249"/>
+      <c r="D44" s="299"/>
+      <c r="E44" s="299"/>
+      <c r="F44" s="299"/>
+      <c r="G44" s="299"/>
+      <c r="H44" s="299"/>
+      <c r="I44" s="299"/>
+      <c r="J44" s="299"/>
+      <c r="K44" s="299"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5753,19 +5704,19 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="250" t="s">
+      <c r="A45" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="250"/>
-      <c r="C45" s="250"/>
-      <c r="D45" s="250"/>
-      <c r="E45" s="250"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="250"/>
-      <c r="K45" s="250"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="300"/>
+      <c r="F45" s="300"/>
+      <c r="G45" s="300"/>
+      <c r="H45" s="300"/>
+      <c r="I45" s="300"/>
+      <c r="J45" s="300"/>
+      <c r="K45" s="300"/>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -5785,17 +5736,17 @@
       <c r="AB45" s="39"/>
     </row>
     <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="250"/>
-      <c r="B46" s="250"/>
-      <c r="C46" s="250"/>
-      <c r="D46" s="250"/>
-      <c r="E46" s="250"/>
-      <c r="F46" s="250"/>
-      <c r="G46" s="250"/>
-      <c r="H46" s="250"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="250"/>
-      <c r="K46" s="250"/>
+      <c r="A46" s="300"/>
+      <c r="B46" s="300"/>
+      <c r="C46" s="300"/>
+      <c r="D46" s="300"/>
+      <c r="E46" s="300"/>
+      <c r="F46" s="300"/>
+      <c r="G46" s="300"/>
+      <c r="H46" s="300"/>
+      <c r="I46" s="300"/>
+      <c r="J46" s="300"/>
+      <c r="K46" s="300"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -5851,11 +5802,11 @@
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="251" t="s">
+      <c r="I50" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="251"/>
-      <c r="K50" s="251"/>
+      <c r="J50" s="301"/>
+      <c r="K50" s="301"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5864,36 +5815,59 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="101">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="A45:K46"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="D38:F41"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
@@ -5912,59 +5886,36 @@
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="A45:K46"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="D38:F41"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
@@ -5999,32 +5950,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="253"/>
-      <c r="B1" s="253"/>
-      <c r="C1" s="296" t="s">
+      <c r="A1" s="256"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
+      <c r="A2" s="256"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -6035,19 +5986,19 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="296" t="s">
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -6058,19 +6009,19 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="253"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="296" t="s">
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -6081,29 +6032,29 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="292" t="s">
+      <c r="B5" s="253"/>
+      <c r="C5" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="292"/>
+      <c r="D5" s="254"/>
       <c r="E5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="297" t="s">
+      <c r="G5" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="298"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="292" t="s">
+      <c r="H5" s="259"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="292"/>
+      <c r="K5" s="254"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -6114,25 +6065,25 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="291"/>
-      <c r="B6" s="291"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
+      <c r="A6" s="248"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="53">
         <v>1.5</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="294" t="s">
+      <c r="H6" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="295"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="266"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="249"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -6143,29 +6094,29 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="255"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="253"/>
+      <c r="C7" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="292" t="s">
+      <c r="E7" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="292"/>
-      <c r="G7" s="255" t="s">
+      <c r="F7" s="254"/>
+      <c r="G7" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="290" t="s">
+      <c r="H7" s="253"/>
+      <c r="I7" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="255"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -6176,25 +6127,25 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="266"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="81" t="s">
+      <c r="A8" s="249"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="255" t="s">
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="266" t="s">
+      <c r="H8" s="253"/>
+      <c r="I8" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -6205,25 +6156,25 @@
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="292" t="s">
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="255" t="s">
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="255"/>
-      <c r="I9" s="290">
+      <c r="H9" s="253"/>
+      <c r="I9" s="255">
         <v>0</v>
       </c>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -6234,25 +6185,25 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
+      <c r="A10" s="249"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="56"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="82" t="s">
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="292" t="s">
+      <c r="J10" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="292"/>
+      <c r="K10" s="254"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -6263,14 +6214,14 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="293" t="s">
+      <c r="A11" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
       <c r="G11" s="57"/>
       <c r="H11" s="58"/>
       <c r="I11" s="59"/>
@@ -6286,14 +6237,14 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="57"/>
       <c r="H12" s="58"/>
       <c r="I12" s="59"/>
@@ -6309,14 +6260,14 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="83"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="57"/>
       <c r="H13" s="58"/>
       <c r="I13" s="59"/>
@@ -6338,12 +6289,12 @@
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="283" t="s">
+      <c r="A14" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="283"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
+      <c r="B14" s="270"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
       <c r="G14" s="57"/>
@@ -6367,12 +6318,12 @@
       <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="284" t="s">
+      <c r="A15" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="284"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="284"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="62"/>
       <c r="F15" s="63"/>
       <c r="G15" s="57"/>
@@ -6396,12 +6347,12 @@
       <c r="Y15" s="24"/>
     </row>
     <row r="16" spans="1:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="284"/>
-      <c r="B16" s="284"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
+      <c r="A16" s="271"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
       <c r="G16" s="57"/>
       <c r="H16" s="64"/>
       <c r="I16" s="59"/>
@@ -6414,26 +6365,26 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="285"/>
-      <c r="H17" s="286"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
       <c r="I17" s="65"/>
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
@@ -6444,23 +6395,23 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="287" t="s">
+      <c r="A18" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="289">
+      <c r="B18" s="276">
         <v>4553</v>
       </c>
-      <c r="C18" s="289">
+      <c r="C18" s="276">
         <v>4713</v>
       </c>
-      <c r="D18" s="290">
+      <c r="D18" s="255">
         <v>1</v>
       </c>
-      <c r="E18" s="289">
+      <c r="E18" s="276">
         <f>C18-B18</f>
         <v>160</v>
       </c>
-      <c r="F18" s="290"/>
+      <c r="F18" s="255"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
@@ -6473,12 +6424,12 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="288"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
+      <c r="A19" s="275"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="255"/>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -6490,12 +6441,12 @@
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="288"/>
-      <c r="B20" s="289"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
+      <c r="A20" s="275"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="255"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
@@ -6506,12 +6457,12 @@
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="288"/>
-      <c r="B21" s="289"/>
-      <c r="C21" s="289"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
+      <c r="A21" s="275"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="255"/>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
       <c r="I21" s="64"/>
@@ -6522,12 +6473,12 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="288"/>
-      <c r="B22" s="289"/>
-      <c r="C22" s="289"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
+      <c r="A22" s="275"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="255"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
@@ -6538,187 +6489,187 @@
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="278" t="s">
+      <c r="A23" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="278"/>
-      <c r="D23" s="279" t="s">
+      <c r="B23" s="262"/>
+      <c r="C23" s="262"/>
+      <c r="D23" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="280" t="s">
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="280"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="281"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="265"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="88">
+      <c r="B24" s="266"/>
+      <c r="C24" s="83">
         <f>E18</f>
         <v>160</v>
       </c>
-      <c r="D24" s="252" t="s">
+      <c r="D24" s="267" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="252"/>
+      <c r="E24" s="267"/>
       <c r="F24" s="31">
         <v>0</v>
       </c>
-      <c r="G24" s="256" t="s">
+      <c r="G24" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="282">
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="269">
         <f>F37+C31</f>
         <v>5634.8</v>
       </c>
-      <c r="K24" s="282"/>
+      <c r="K24" s="269"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="267"/>
-      <c r="C25" s="87">
+      <c r="B25" s="279"/>
+      <c r="C25" s="82">
         <f>IF(C24&lt;=100,(C24*C37),IF(C24&lt;=200,(C24*C38),IF(C24&lt;=300,(C24*C39),IF(C24&lt;=400,(C24*C40),IF(C24&lt;=500,(C24*C41),IF(D24&lt;=600,(D24*C42),IF(D24&lt;=700,(D24*C43),IF(D24&gt;700,(D24*C44)))))))))</f>
         <v>3672</v>
       </c>
-      <c r="D25" s="252" t="s">
+      <c r="D25" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="252"/>
-      <c r="F25" s="87">
+      <c r="E25" s="267"/>
+      <c r="F25" s="82">
         <v>35</v>
       </c>
-      <c r="G25" s="263" t="s">
+      <c r="G25" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="263"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="270">
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="280">
         <v>250</v>
       </c>
-      <c r="K25" s="270"/>
+      <c r="K25" s="280"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="271" t="s">
+      <c r="A26" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="272"/>
-      <c r="C26" s="275">
+      <c r="B26" s="282"/>
+      <c r="C26" s="285">
         <v>825</v>
       </c>
-      <c r="D26" s="252" t="s">
+      <c r="D26" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="252"/>
-      <c r="F26" s="87">
+      <c r="E26" s="267"/>
+      <c r="F26" s="82">
         <v>25</v>
       </c>
-      <c r="G26" s="268" t="s">
+      <c r="G26" s="287" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="268"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="282">
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="269">
         <f>J25+J24</f>
         <v>5884.8</v>
       </c>
-      <c r="K26" s="282"/>
+      <c r="K26" s="269"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="273"/>
-      <c r="B27" s="274"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="252" t="s">
+      <c r="A27" s="283"/>
+      <c r="B27" s="284"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="252"/>
+      <c r="E27" s="267"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="263" t="s">
+      <c r="G27" s="277" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="282">
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="269">
         <f>J26/2</f>
         <v>2942.4</v>
       </c>
-      <c r="K27" s="282"/>
+      <c r="K27" s="269"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="87">
+      <c r="B28" s="279"/>
+      <c r="C28" s="82">
         <v>395</v>
       </c>
-      <c r="D28" s="252" t="s">
+      <c r="D28" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="252"/>
+      <c r="E28" s="267"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="263" t="s">
+      <c r="G28" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="265">
+      <c r="H28" s="277"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="278">
         <v>0</v>
       </c>
-      <c r="K28" s="265"/>
+      <c r="K28" s="278"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="267" t="s">
+      <c r="A29" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="267"/>
-      <c r="C29" s="87">
+      <c r="B29" s="279"/>
+      <c r="C29" s="82">
         <v>166</v>
       </c>
-      <c r="D29" s="252" t="s">
+      <c r="D29" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="252"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="287" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="268"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="269">
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="291">
         <f>J27</f>
         <v>2942.4</v>
       </c>
-      <c r="K29" s="269"/>
+      <c r="K29" s="291"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -6738,28 +6689,28 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="87">
+      <c r="B30" s="279"/>
+      <c r="C30" s="82">
         <v>0</v>
       </c>
-      <c r="D30" s="252" t="s">
+      <c r="D30" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="252"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="263" t="s">
+      <c r="G30" s="277" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="263"/>
-      <c r="I30" s="263"/>
-      <c r="J30" s="282">
+      <c r="H30" s="277"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="269">
         <f>J29*10%</f>
         <v>294.24</v>
       </c>
-      <c r="K30" s="282"/>
+      <c r="K30" s="269"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="5"/>
@@ -6779,29 +6730,29 @@
       <c r="AB30" s="10"/>
     </row>
     <row r="31" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="263" t="s">
+      <c r="A31" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="263"/>
-      <c r="C31" s="88">
+      <c r="B31" s="277"/>
+      <c r="C31" s="83">
         <f>C25+C26+C28+C29+C30</f>
         <v>5058</v>
       </c>
-      <c r="D31" s="252" t="s">
+      <c r="D31" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="252"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="264" t="s">
+      <c r="G31" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="264"/>
-      <c r="I31" s="264"/>
-      <c r="J31" s="282">
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="269">
         <f>J29+J30</f>
         <v>3236.6400000000003</v>
       </c>
-      <c r="K31" s="282"/>
+      <c r="K31" s="269"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -6821,23 +6772,23 @@
       <c r="AB31" s="10"/>
     </row>
     <row r="32" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="255" t="s">
+      <c r="A32" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="255"/>
+      <c r="B32" s="253"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="252" t="s">
+      <c r="D32" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="252"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="266" t="s">
+      <c r="G32" s="249" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="5"/>
@@ -6857,27 +6808,27 @@
       <c r="AB32" s="10"/>
     </row>
     <row r="33" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="255" t="s">
+      <c r="A33" s="253" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="255"/>
+      <c r="B33" s="253"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="252" t="s">
+      <c r="D33" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="252"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="257" t="s">
+      <c r="G33" s="292" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="258" t="s">
+      <c r="H33" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="258"/>
-      <c r="J33" s="259" t="s">
+      <c r="I33" s="252"/>
+      <c r="J33" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="259"/>
+      <c r="K33" s="293"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -6897,30 +6848,30 @@
       <c r="AB33" s="10"/>
     </row>
     <row r="34" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="255" t="s">
+      <c r="A34" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="255"/>
+      <c r="B34" s="253"/>
       <c r="C34" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="252" t="s">
+      <c r="D34" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="252"/>
-      <c r="F34" s="87">
+      <c r="E34" s="267"/>
+      <c r="F34" s="82">
         <f>C24*3.23</f>
         <v>516.79999999999995</v>
       </c>
-      <c r="G34" s="257"/>
-      <c r="H34" s="300" t="s">
+      <c r="G34" s="292"/>
+      <c r="H34" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="301"/>
-      <c r="J34" s="302">
+      <c r="I34" s="305"/>
+      <c r="J34" s="306">
         <v>2.5627</v>
       </c>
-      <c r="K34" s="302"/>
+      <c r="K34" s="306"/>
       <c r="L34" s="66"/>
       <c r="M34" s="66"/>
       <c r="N34" s="5"/>
@@ -6949,16 +6900,16 @@
       <c r="C35" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="252" t="s">
+      <c r="D35" s="267" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="252"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="253"/>
-      <c r="K35" s="253"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
       <c r="N35" s="5"/>
@@ -6987,14 +6938,14 @@
       <c r="C36" s="71">
         <v>0</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="31"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
       <c r="N36" s="5"/>
@@ -7023,21 +6974,21 @@
       <c r="C37" s="71">
         <v>16.48</v>
       </c>
-      <c r="D37" s="252" t="s">
+      <c r="D37" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="252"/>
-      <c r="F37" s="88">
+      <c r="E37" s="267"/>
+      <c r="F37" s="83">
         <f>SUM(F24:F35)</f>
         <v>576.79999999999995</v>
       </c>
-      <c r="G37" s="254" t="s">
+      <c r="G37" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="254"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="254"/>
-      <c r="K37" s="254"/>
+      <c r="H37" s="303"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="303"/>
+      <c r="K37" s="303"/>
       <c r="L37" s="66"/>
       <c r="M37" s="66"/>
       <c r="N37" s="5"/>
@@ -7066,16 +7017,16 @@
       <c r="C38" s="71">
         <v>22.95</v>
       </c>
-      <c r="D38" s="253"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="255" t="s">
+      <c r="D38" s="256"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="253" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
-      <c r="K38" s="255"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
+      <c r="K38" s="253"/>
       <c r="L38" s="74"/>
       <c r="M38" s="74"/>
       <c r="N38" s="35"/>
@@ -7104,16 +7055,16 @@
       <c r="C39" s="71">
         <v>34.26</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="256" t="s">
+      <c r="D39" s="256"/>
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="256"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="256"/>
-      <c r="K39" s="256"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
       <c r="L39" s="74"/>
       <c r="M39" s="74"/>
       <c r="N39" s="37"/>
@@ -7142,16 +7093,16 @@
       <c r="C40" s="71">
         <v>39.15</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="254" t="s">
+      <c r="D40" s="256"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="254"/>
+      <c r="H40" s="303"/>
+      <c r="I40" s="303"/>
+      <c r="J40" s="303"/>
+      <c r="K40" s="303"/>
       <c r="L40" s="74"/>
       <c r="M40" s="74"/>
       <c r="N40" s="5"/>
@@ -7180,16 +7131,16 @@
       <c r="C41" s="71">
         <v>41.36</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="255" t="s">
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="255"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="253"/>
+      <c r="K41" s="253"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
@@ -7203,16 +7154,16 @@
       <c r="C42" s="71">
         <v>42.78</v>
       </c>
-      <c r="D42" s="247" t="s">
+      <c r="D42" s="297" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="247"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="247"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="297"/>
+      <c r="H42" s="297"/>
+      <c r="I42" s="297"/>
+      <c r="J42" s="297"/>
+      <c r="K42" s="297"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7241,16 +7192,16 @@
       <c r="C43" s="71">
         <v>43.92</v>
       </c>
-      <c r="D43" s="248" t="s">
+      <c r="D43" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="248"/>
-      <c r="F43" s="248"/>
-      <c r="G43" s="248"/>
-      <c r="H43" s="248"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="248"/>
-      <c r="K43" s="248"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="298"/>
+      <c r="K43" s="298"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7279,14 +7230,14 @@
       <c r="C44" s="77">
         <v>48.84</v>
       </c>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="249"/>
-      <c r="H44" s="249"/>
-      <c r="I44" s="249"/>
-      <c r="J44" s="249"/>
-      <c r="K44" s="249"/>
+      <c r="D44" s="299"/>
+      <c r="E44" s="299"/>
+      <c r="F44" s="299"/>
+      <c r="G44" s="299"/>
+      <c r="H44" s="299"/>
+      <c r="I44" s="299"/>
+      <c r="J44" s="299"/>
+      <c r="K44" s="299"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7306,19 +7257,19 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="250" t="s">
+      <c r="A45" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="250"/>
-      <c r="C45" s="250"/>
-      <c r="D45" s="250"/>
-      <c r="E45" s="250"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="250"/>
-      <c r="K45" s="250"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="300"/>
+      <c r="F45" s="300"/>
+      <c r="G45" s="300"/>
+      <c r="H45" s="300"/>
+      <c r="I45" s="300"/>
+      <c r="J45" s="300"/>
+      <c r="K45" s="300"/>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -7338,17 +7289,17 @@
       <c r="AB45" s="39"/>
     </row>
     <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="250"/>
-      <c r="B46" s="250"/>
-      <c r="C46" s="250"/>
-      <c r="D46" s="250"/>
-      <c r="E46" s="250"/>
-      <c r="F46" s="250"/>
-      <c r="G46" s="250"/>
-      <c r="H46" s="250"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="250"/>
-      <c r="K46" s="250"/>
+      <c r="A46" s="300"/>
+      <c r="B46" s="300"/>
+      <c r="C46" s="300"/>
+      <c r="D46" s="300"/>
+      <c r="E46" s="300"/>
+      <c r="F46" s="300"/>
+      <c r="G46" s="300"/>
+      <c r="H46" s="300"/>
+      <c r="I46" s="300"/>
+      <c r="J46" s="300"/>
+      <c r="K46" s="300"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -7367,17 +7318,17 @@
       <c r="AA46" s="35"/>
     </row>
     <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -7404,11 +7355,11 @@
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="251" t="s">
+      <c r="I50" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="251"/>
-      <c r="K50" s="251"/>
+      <c r="J50" s="301"/>
+      <c r="K50" s="301"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7417,36 +7368,59 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="101">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="A45:K46"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="D38:F41"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
@@ -7465,59 +7439,36 @@
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="A45:K46"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="D38:F41"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
